--- a/fall19/assignment05/Grading Template 05.xlsx
+++ b/fall19/assignment05/Grading Template 05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\GitHub\aavolo\cmsi186\spring19\assignment05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\LMU\CMSI 186\Live on Github\cmsi186\fall19\assignment05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364E8669-1737-4AE8-9A4E-4F4E01437A75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B838C5C8-75CE-40DC-96FB-5AFC3AE2A6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" activeTab="5" xr2:uid="{63A3425B-6033-479B-8BF1-9D375DE2499F}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <sheet name="Class Total (2)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
   <si>
     <t>#</t>
   </si>
@@ -528,6 +527,9 @@
   </si>
   <si>
     <t>poly - takes in upper and lower bounds and uses them correctly</t>
+  </si>
+  <si>
+    <t>You have uploaded either the existing, or your own .bat /.sh file to your github</t>
   </si>
 </sst>
 </file>
@@ -619,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,6 +694,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,8 +709,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1343,7 +1357,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2">
@@ -1357,7 +1371,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1369,7 +1383,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1381,7 +1395,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1393,7 +1407,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="2">
         <v>5</v>
       </c>
@@ -1405,7 +1419,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1417,7 +1431,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="2">
         <v>7</v>
       </c>
@@ -1429,7 +1443,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="6">
         <v>8</v>
       </c>
@@ -1442,7 +1456,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="9">
@@ -1457,7 +1471,7 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="2">
         <v>2</v>
       </c>
@@ -1469,7 +1483,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="2">
         <v>3</v>
       </c>
@@ -1481,7 +1495,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="2">
         <v>4</v>
       </c>
@@ -1493,7 +1507,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
@@ -1505,7 +1519,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="2">
         <v>6</v>
       </c>
@@ -1517,7 +1531,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="2">
         <v>7</v>
       </c>
@@ -1529,7 +1543,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="2">
         <v>8</v>
       </c>
@@ -1541,7 +1555,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="2">
         <v>9</v>
       </c>
@@ -1553,7 +1567,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="6">
         <v>10</v>
       </c>
@@ -1566,7 +1580,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="9">
@@ -1581,7 +1595,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="2">
         <v>2</v>
       </c>
@@ -1593,7 +1607,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="2">
         <v>3</v>
       </c>
@@ -1605,7 +1619,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="2">
         <v>4</v>
       </c>
@@ -1617,7 +1631,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="32"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="2">
         <v>5</v>
       </c>
@@ -1629,7 +1643,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="32"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="2">
         <v>6</v>
       </c>
@@ -1641,7 +1655,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="2">
         <v>7</v>
       </c>
@@ -1653,7 +1667,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="6">
         <v>8</v>
       </c>
@@ -1765,7 +1779,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="8">
@@ -1779,7 +1793,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
@@ -1791,7 +1805,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="8">
         <v>3</v>
       </c>
@@ -1803,7 +1817,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8">
         <v>4</v>
       </c>
@@ -1815,7 +1829,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="8">
         <v>5</v>
       </c>
@@ -1827,7 +1841,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8">
         <v>6</v>
       </c>
@@ -1839,7 +1853,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="8">
         <v>7</v>
       </c>
@@ -1851,7 +1865,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="8">
         <v>8</v>
       </c>
@@ -1863,7 +1877,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="27">
@@ -1878,7 +1892,7 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8">
         <v>2</v>
       </c>
@@ -1890,7 +1904,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8">
         <v>3</v>
       </c>
@@ -1902,7 +1916,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="8">
         <v>4</v>
       </c>
@@ -1914,7 +1928,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8">
         <v>5</v>
       </c>
@@ -1926,7 +1940,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8">
         <v>6</v>
       </c>
@@ -1938,7 +1952,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="8">
         <v>7</v>
       </c>
@@ -1950,7 +1964,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="8">
         <v>8</v>
       </c>
@@ -1962,7 +1976,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="28">
         <v>9</v>
       </c>
@@ -1975,7 +1989,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="8">
@@ -1989,7 +2003,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="29">
         <v>2</v>
       </c>
@@ -2066,7 +2080,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="8">
@@ -2080,7 +2094,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
@@ -2092,7 +2106,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="8">
         <v>3</v>
       </c>
@@ -2104,7 +2118,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="27">
@@ -2119,7 +2133,7 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -2131,7 +2145,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -2143,7 +2157,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="8">
         <v>4</v>
       </c>
@@ -2155,7 +2169,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="8">
         <v>5</v>
       </c>
@@ -2167,7 +2181,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="28">
         <v>6</v>
       </c>
@@ -2180,7 +2194,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="27">
@@ -2195,7 +2209,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8">
         <v>2</v>
       </c>
@@ -2207,7 +2221,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="19">
         <v>3</v>
       </c>
@@ -2219,7 +2233,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8">
         <v>4</v>
       </c>
@@ -2231,7 +2245,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8">
         <v>5</v>
       </c>
@@ -2243,7 +2257,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="8">
         <v>6</v>
       </c>
@@ -2255,7 +2269,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="8">
         <v>7</v>
       </c>
@@ -2267,7 +2281,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="8">
         <v>8</v>
       </c>
@@ -2279,7 +2293,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8">
         <v>9</v>
       </c>
@@ -2291,7 +2305,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="8">
         <v>10</v>
       </c>
@@ -2303,7 +2317,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="8">
         <v>11</v>
       </c>
@@ -2315,7 +2329,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="8">
         <v>12</v>
       </c>
@@ -2327,7 +2341,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="28">
         <v>13</v>
       </c>
@@ -2340,7 +2354,7 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="27">
@@ -2355,7 +2369,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="33"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="28">
         <v>2</v>
       </c>
@@ -2368,7 +2382,7 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="33" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="8">
@@ -2382,7 +2396,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8">
         <v>2</v>
       </c>
@@ -2394,7 +2408,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="32"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="8">
         <v>3</v>
       </c>
@@ -2406,7 +2420,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="35"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="29"/>
       <c r="D31" s="25"/>
       <c r="E31" s="15"/>
@@ -2438,10 +2452,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2478,7 +2492,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="8"/>
@@ -2490,7 +2504,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="28"/>
       <c r="D5" s="22" t="s">
         <v>117</v>
@@ -2501,7 +2515,7 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>138</v>
       </c>
       <c r="C6" s="27"/>
@@ -2514,7 +2528,7 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8"/>
       <c r="D7" s="20" t="s">
         <v>124</v>
@@ -2524,7 +2538,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="8"/>
       <c r="D8" s="20" t="s">
         <v>142</v>
@@ -2534,7 +2548,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="28"/>
       <c r="D9" s="22" t="s">
         <v>141</v>
@@ -2545,10 +2559,10 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="23" t="s">
         <v>125</v>
       </c>
@@ -2558,7 +2572,7 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
         <v>126</v>
@@ -2568,7 +2582,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="8"/>
       <c r="D12" s="20" t="s">
         <v>129</v>
@@ -2578,7 +2592,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8"/>
       <c r="D13" s="20" t="s">
         <v>131</v>
@@ -2588,7 +2602,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8"/>
       <c r="D14" s="20" t="s">
         <v>130</v>
@@ -2598,7 +2612,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="8"/>
       <c r="D15" s="20" t="s">
         <v>132</v>
@@ -2608,7 +2622,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8"/>
       <c r="D16" s="20" t="s">
         <v>150</v>
@@ -2618,7 +2632,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="28"/>
       <c r="D17" s="22" t="s">
         <v>145</v>
@@ -2629,7 +2643,7 @@
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="27"/>
@@ -2642,7 +2656,7 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="8"/>
       <c r="D19" s="20" t="s">
         <v>144</v>
@@ -2652,7 +2666,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="32"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="8"/>
       <c r="D20" s="20" t="s">
         <v>148</v>
@@ -2662,7 +2676,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8"/>
       <c r="D21" s="20" t="s">
         <v>149</v>
@@ -2672,7 +2686,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="28"/>
       <c r="D22" s="22" t="s">
         <v>146</v>
@@ -2683,7 +2697,7 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="27"/>
@@ -2696,7 +2710,7 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="33"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="28"/>
       <c r="D24" s="22" t="s">
         <v>128</v>
@@ -2707,7 +2721,7 @@
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>137</v>
       </c>
       <c r="C25" s="27"/>
@@ -2719,143 +2733,154 @@
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="32"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="32"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="40">
+        <v>1</v>
+      </c>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="33"/>
       <c r="C27" s="8"/>
       <c r="D27" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E27" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="8"/>
       <c r="D28" s="20" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E28" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="8"/>
       <c r="D29" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="32"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="8"/>
       <c r="D30" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="33"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="33"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="22" t="s">
+    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="34"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>3</v>
       </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="32"/>
       <c r="C33" s="8"/>
       <c r="D33" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E33" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="33"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="34"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="14">
-        <v>1</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B36" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="20" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="32"/>
-      <c r="C36" s="8"/>
-    </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="35"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="24" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="33"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="36"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="12">
-        <f>SUM(E4:E34)</f>
-        <v>71</v>
+      <c r="E40" s="12">
+        <f>SUM(E4:E35)</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fall19/assignment05/Grading Template 05.xlsx
+++ b/fall19/assignment05/Grading Template 05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aavol\Documents\LMU\CMSI 186\Live on Github\cmsi186\fall19\assignment05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B838C5C8-75CE-40DC-96FB-5AFC3AE2A6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D668652-3615-4EC8-A8D6-6CCA003BDA52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" activeTab="5" xr2:uid="{63A3425B-6033-479B-8BF1-9D375DE2499F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
   <si>
     <t>#</t>
   </si>
@@ -486,12 +486,6 @@
     </r>
   </si>
   <si>
-    <t>Your program outputs the number of iterations used to arrive at the answer</t>
-  </si>
-  <si>
-    <t>Your program handles bound arguments that are out of order</t>
-  </si>
-  <si>
     <t>sin - no args - clear message to user</t>
   </si>
   <si>
@@ -530,6 +524,27 @@
   </si>
   <si>
     <t>You have uploaded either the existing, or your own .bat /.sh file to your github</t>
+  </si>
+  <si>
+    <t>Clear message to user if upper bound is not greater than lower bound</t>
+  </si>
+  <si>
+    <t>Clear message to user if function is called that does not exist</t>
+  </si>
+  <si>
+    <t>Clear message to user if incorrect no arguments</t>
+  </si>
+  <si>
+    <t>Clear message to user if only 2 arguments</t>
+  </si>
+  <si>
+    <t>Your program outputs the correct number of iterations used to arrive at the answer</t>
+  </si>
+  <si>
+    <t>Output and error messages</t>
+  </si>
+  <si>
+    <t>Clear message to user at beginning of program to display settings and purpose</t>
   </si>
 </sst>
 </file>
@@ -697,6 +712,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,15 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1357,7 +1372,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2">
@@ -1371,7 +1386,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="33"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1383,7 +1398,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1395,7 +1410,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1407,7 +1422,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="2">
         <v>5</v>
       </c>
@@ -1419,7 +1434,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1431,7 +1446,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="33"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="2">
         <v>7</v>
       </c>
@@ -1443,7 +1458,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="34"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="6">
         <v>8</v>
       </c>
@@ -1456,7 +1471,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="9">
@@ -1471,7 +1486,7 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="2">
         <v>2</v>
       </c>
@@ -1483,7 +1498,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="2">
         <v>3</v>
       </c>
@@ -1495,7 +1510,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="2">
         <v>4</v>
       </c>
@@ -1507,7 +1522,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="2">
         <v>5</v>
       </c>
@@ -1519,7 +1534,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="2">
         <v>6</v>
       </c>
@@ -1531,7 +1546,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="2">
         <v>7</v>
       </c>
@@ -1543,7 +1558,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="2">
         <v>8</v>
       </c>
@@ -1555,7 +1570,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="33"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="2">
         <v>9</v>
       </c>
@@ -1567,7 +1582,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="34"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="6">
         <v>10</v>
       </c>
@@ -1580,7 +1595,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="9">
@@ -1595,7 +1610,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="33"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="2">
         <v>2</v>
       </c>
@@ -1607,7 +1622,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="2">
         <v>3</v>
       </c>
@@ -1619,7 +1634,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="2">
         <v>4</v>
       </c>
@@ -1631,7 +1646,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="33"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="2">
         <v>5</v>
       </c>
@@ -1643,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="33"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="2">
         <v>6</v>
       </c>
@@ -1655,7 +1670,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="33"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="2">
         <v>7</v>
       </c>
@@ -1667,7 +1682,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="34"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="6">
         <v>8</v>
       </c>
@@ -1779,7 +1794,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="8">
@@ -1793,7 +1808,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="33"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
@@ -1805,7 +1820,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8">
         <v>3</v>
       </c>
@@ -1817,7 +1832,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="8">
         <v>4</v>
       </c>
@@ -1829,7 +1844,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8">
         <v>5</v>
       </c>
@@ -1841,7 +1856,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="8">
         <v>6</v>
       </c>
@@ -1853,7 +1868,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="33"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="8">
         <v>7</v>
       </c>
@@ -1865,7 +1880,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="8">
         <v>8</v>
       </c>
@@ -1877,7 +1892,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="27">
@@ -1892,7 +1907,7 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8">
         <v>2</v>
       </c>
@@ -1904,7 +1919,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="8">
         <v>3</v>
       </c>
@@ -1916,7 +1931,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="8">
         <v>4</v>
       </c>
@@ -1928,7 +1943,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8">
         <v>5</v>
       </c>
@@ -1940,7 +1955,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8">
         <v>6</v>
       </c>
@@ -1952,7 +1967,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8">
         <v>7</v>
       </c>
@@ -1964,7 +1979,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8">
         <v>8</v>
       </c>
@@ -1976,7 +1991,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="34"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="28">
         <v>9</v>
       </c>
@@ -1989,7 +2004,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="8">
@@ -2003,7 +2018,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="36"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="29">
         <v>2</v>
       </c>
@@ -2080,7 +2095,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="8">
@@ -2094,7 +2109,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="33"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
@@ -2106,7 +2121,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8">
         <v>3</v>
       </c>
@@ -2118,7 +2133,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="38" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="27">
@@ -2133,7 +2148,7 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -2145,7 +2160,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
@@ -2157,7 +2172,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="33"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="8">
         <v>4</v>
       </c>
@@ -2169,7 +2184,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="8">
         <v>5</v>
       </c>
@@ -2181,7 +2196,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="34"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="28">
         <v>6</v>
       </c>
@@ -2194,7 +2209,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="27">
@@ -2209,7 +2224,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="8">
         <v>2</v>
       </c>
@@ -2221,7 +2236,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="19">
         <v>3</v>
       </c>
@@ -2233,7 +2248,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8">
         <v>4</v>
       </c>
@@ -2245,7 +2260,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="33"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8">
         <v>5</v>
       </c>
@@ -2257,7 +2272,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="8">
         <v>6</v>
       </c>
@@ -2269,7 +2284,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8">
         <v>7</v>
       </c>
@@ -2281,7 +2296,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="33"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8">
         <v>8</v>
       </c>
@@ -2293,7 +2308,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="8">
         <v>9</v>
       </c>
@@ -2305,7 +2320,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="33"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="8">
         <v>10</v>
       </c>
@@ -2317,7 +2332,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="33"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="8">
         <v>11</v>
       </c>
@@ -2329,7 +2344,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="33"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="8">
         <v>12</v>
       </c>
@@ -2341,7 +2356,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="34"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="28">
         <v>13</v>
       </c>
@@ -2354,7 +2369,7 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="38" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="27">
@@ -2369,7 +2384,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="34"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="28">
         <v>2</v>
       </c>
@@ -2382,7 +2397,7 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="8">
@@ -2396,7 +2411,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="33"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="8">
         <v>2</v>
       </c>
@@ -2408,7 +2423,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="33"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="8">
         <v>3</v>
       </c>
@@ -2420,7 +2435,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="36"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="29"/>
       <c r="D31" s="25"/>
       <c r="E31" s="15"/>
@@ -2452,15 +2467,15 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="19"/>
     <col min="4" max="4" width="103" style="20" customWidth="1"/>
     <col min="5" max="5" width="13.453125" style="12" bestFit="1" customWidth="1"/>
@@ -2492,7 +2507,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="8"/>
@@ -2504,7 +2519,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="28"/>
       <c r="D5" s="22" t="s">
         <v>117</v>
@@ -2515,7 +2530,7 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>138</v>
       </c>
       <c r="C6" s="27"/>
@@ -2528,7 +2543,7 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="8"/>
       <c r="D7" s="20" t="s">
         <v>124</v>
@@ -2538,349 +2553,402 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="33"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14"/>
+      <c r="B9" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="B10" s="36"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="12">
         <v>2</v>
       </c>
-      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="33"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E11" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="8"/>
       <c r="D12" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E12" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8"/>
       <c r="D13" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="8"/>
       <c r="D14" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E14" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="33"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="8"/>
       <c r="D15" s="20" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E15" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="B16" s="37"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="14">
-        <v>5</v>
-      </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="B18" s="36"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="12">
         <v>2</v>
       </c>
-      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="8"/>
       <c r="D19" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E19" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="33"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="8"/>
       <c r="D20" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="37"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="33"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="20" t="s">
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="13">
+        <v>3</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="37"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="40"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="35">
+        <v>1</v>
+      </c>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="40"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="35">
+        <v>1</v>
+      </c>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="40"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1</v>
+      </c>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="40"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="35">
+        <v>1</v>
+      </c>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="37"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="13">
+        <v>3</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="40"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="E31" s="35">
+        <v>1</v>
+      </c>
+      <c r="F31" s="35"/>
+    </row>
+    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B32" s="36"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="12">
         <v>5</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="13">
-        <v>3</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="34"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="13">
-        <v>3</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="40">
-        <v>1</v>
-      </c>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="33"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="33"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="33"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="33"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="33"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="34"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="14">
-        <v>3</v>
-      </c>
-      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="33" t="s">
-        <v>77</v>
-      </c>
+      <c r="B33" s="36"/>
       <c r="C33" s="8"/>
       <c r="D33" s="20" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="E33" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="33"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="8"/>
       <c r="D34" s="20" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E34" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="34"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1</v>
-      </c>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B36" s="33" t="s">
-        <v>97</v>
-      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="36"/>
       <c r="C36" s="8"/>
       <c r="D36" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="33"/>
-      <c r="C37" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="E36" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B37" s="37"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="14">
+        <v>3</v>
+      </c>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="33"/>
+      <c r="B38" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="36"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="24" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="37"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B41" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="36"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="36"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="39"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="12">
-        <f>SUM(E4:E35)</f>
-        <v>72</v>
+      <c r="E45" s="12">
+        <f>SUM(E4:E40)</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B36:B39"/>
+  <mergeCells count="9">
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B24:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
